--- a/data_voor_swing/gebiedsdefinities/gemeente.xlsx
+++ b/data_voor_swing/gebiedsdefinities/gemeente.xlsx
@@ -6161,12 +6161,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/gebiedsdefinities/gemeente.xlsx
+++ b/data_voor_swing/gebiedsdefinities/gemeente.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D323"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6175,16 +6175,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="23">
-        <v>99992</v>
+        <v>99993</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren - Brussel</t>
+          <t>Niet te lokaliseren</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren - Brussel</t>
+          <t>Niet te lokaliseren</t>
         </is>
       </c>
     </row>
@@ -6193,14 +6193,32 @@
         <v>322</v>
       </c>
       <c r="B323" s="23">
+        <v>99992</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren - Brussel</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren - Brussel</t>
+        </is>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="0" outlineLevel="0">
+      <c r="A324" s="23">
+        <v>323</v>
+      </c>
+      <c r="B324" s="23">
         <v>99991</v>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>Niet te lokaliseren - Vlaanderen</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
+      <c r="D324" t="inlineStr">
         <is>
           <t>Niet te lokaliseren - Vlaanderen</t>
         </is>
